--- a/OB1_visuals_scatter.xlsx
+++ b/OB1_visuals_scatter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soowan/Documents/VSCODE/Pearl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DF200-39E3-C44A-8A13-E2E3DF37464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E31FD2-545B-2941-9C10-A249E43AE310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{C107B935-8BFD-384B-AA60-66A8A2B5185E}"/>
   </bookViews>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
